--- a/11-10-24 to 11-16-24 Milwaukee Schedule.xlsx
+++ b/11-10-24 to 11-16-24 Milwaukee Schedule.xlsx
@@ -540,23 +540,43 @@
           <t> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
@@ -571,7 +591,11 @@
           <t> </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -583,11 +607,19 @@
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
       <c r="S5" t="inlineStr"/>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>

--- a/11-10-24 to 11-16-24 Milwaukee Schedule.xlsx
+++ b/11-10-24 to 11-16-24 Milwaukee Schedule.xlsx
@@ -634,7 +634,11 @@
           <t> </t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sante Fe oil change this day</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -1234,7 +1238,7 @@
       <c r="G18" t="inlineStr">
         <is>
           <t>Driver,
-Sante Fe</t>
+White Camry</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -1248,7 +1252,11 @@
           <t>Katherine</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Supv Rx</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr">
         <is>
@@ -2569,8 +2577,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L35" t="inlineStr"/>

--- a/11-10-24 to 11-16-24 Milwaukee Schedule.xlsx
+++ b/11-10-24 to 11-16-24 Milwaukee Schedule.xlsx
@@ -2565,21 +2565,9 @@
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>20)</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
@@ -2698,7 +2686,11 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>5:30 AM MEET BAYSHORE</t>
+        </is>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
@@ -2731,7 +2723,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>5:30 AM MEET BAYSHORE</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2778,7 +2770,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2833,7 +2825,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FOX BROS PIGGLY WIGGLY #088, SAUKVILLE</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2876,7 +2868,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>FOX BROS PIGGLY WIGGLY #088, SAUKVILLE</t>
+          <t>810 E GREEN BAY AVE</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2919,7 +2911,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>810 E GREEN BAY AVE</t>
+          <t>https://goo.gl/maps/eiMeyhHbpT82</t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2966,7 +2958,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/eiMeyhHbpT82</t>
+          <t>STORE RESET-</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -3011,11 +3003,7 @@
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>STORE RESET-</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
@@ -3057,9 +3045,22 @@
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
@@ -3094,18 +3095,17 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Driver,
-Altima, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L46" t="inlineStr"/>
@@ -3162,19 +3162,15 @@
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Curt</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
@@ -3242,12 +3238,12 @@
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Curt</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -3302,12 +3298,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="K49" t="inlineStr"/>
@@ -3362,15 +3358,20 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe</t>
+        </is>
+      </c>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
@@ -3413,20 +3414,15 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
@@ -3473,12 +3469,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -3528,12 +3524,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K53" t="inlineStr"/>
@@ -3581,16 +3577,8 @@
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
@@ -3684,7 +3672,11 @@
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
@@ -3737,7 +3729,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>COCA-COLA, MILWAUKEE</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3784,7 +3776,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>COCA-COLA, MILWAUKEE</t>
+          <t>11800 W BROWN DEER RD</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3815,7 +3807,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr">
         <is>
-          <t>11800 W BROWN DEER RD</t>
+          <t>https://maps.app.goo.gl/8SSv4XLobUiTUcft6</t>
         </is>
       </c>
       <c r="K59" t="inlineStr"/>
@@ -3860,11 +3852,7 @@
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/8SSv4XLobUiTUcft6</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
@@ -3906,8 +3894,16 @@
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
@@ -3947,12 +3943,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -3992,16 +3988,8 @@
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr"/>

--- a/11-10-24 to 11-16-24 Milwaukee Schedule.xlsx
+++ b/11-10-24 to 11-16-24 Milwaukee Schedule.xlsx
@@ -2958,7 +2958,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>STORE RESET-</t>
+          <t xml:space="preserve">STORE RESET-REMAPPED </t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>

--- a/11-10-24 to 11-16-24 Milwaukee Schedule.xlsx
+++ b/11-10-24 to 11-16-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y84"/>
+  <dimension ref="A1:Y83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1288,7 +1288,7 @@
       <c r="S18" t="inlineStr">
         <is>
           <t>Driver,
-Gold Camry</t>
+Red Camry</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
@@ -3983,10 +3983,14 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Stephanie</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -4015,21 +4019,9 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -4086,7 +4078,11 @@
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5:45 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
@@ -4127,7 +4123,7 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>5:45 AM OFFICE LEAVE TIME</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -4166,7 +4162,7 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -4197,7 +4193,7 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+          <t>AURORA OUTPATIENT RX #1230, HOWARDS GROVE</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -4228,7 +4224,7 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1230, HOWARDS GROVE</t>
+          <t>620 S WISCONSIN DR</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -4263,7 +4259,7 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>620 S WISCONSIN DR</t>
+          <t>https://maps.app.goo.gl/m32L8HYJsFkLkhxb9</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -4296,11 +4292,7 @@
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/m32L8HYJsFkLkhxb9</t>
-        </is>
-      </c>
+      <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
@@ -4330,9 +4322,21 @@
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -4361,21 +4365,9 @@
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -4432,7 +4424,11 @@
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Online vendor certifications should be done by Tues, 11/5</t>
+        </is>
+      </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
@@ -4473,7 +4469,7 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Online vendor certifications should be done by Tues, 11/5</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -4512,7 +4508,7 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>COCA-COLA, MILWAUKEE</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -4543,7 +4539,7 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>COCA-COLA, MILWAUKEE</t>
+          <t>11800 W BROWN DEER RD</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -4574,7 +4570,7 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>11800 W BROWN DEER RD</t>
+          <t>https://maps.app.goo.gl/8SSv4XLobUiTUcft6</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -4603,11 +4599,7 @@
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/8SSv4XLobUiTUcft6</t>
-        </is>
-      </c>
+      <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
@@ -4633,8 +4625,16 @@
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
@@ -4662,12 +4662,12 @@
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
@@ -4690,41 +4690,6 @@
       <c r="X83" t="inlineStr"/>
       <c r="Y83" t="inlineStr"/>
     </row>
-    <row r="84">
-      <c r="A84" t="inlineStr"/>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/11-10-24 to 11-16-24 Milwaukee Schedule.xlsx
+++ b/11-10-24 to 11-16-24 Milwaukee Schedule.xlsx
@@ -1238,7 +1238,8 @@
       <c r="G18" t="inlineStr">
         <is>
           <t>Driver,
-White Camry</t>
+White Camry,
+Supv Rx</t>
         </is>
       </c>
       <c r="H18" t="inlineStr"/>
@@ -1471,8 +1472,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H21" t="inlineStr"/>

--- a/11-10-24 to 11-16-24 Milwaukee Schedule.xlsx
+++ b/11-10-24 to 11-16-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y83"/>
+  <dimension ref="A1:Y82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1272,7 +1272,7 @@
       <c r="O18" t="inlineStr">
         <is>
           <t>Driver,
-Altima</t>
+Red Van</t>
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
@@ -1407,10 +1407,15 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Nataun</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr"/>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Driver,
+Red Van</t>
+        </is>
+      </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
@@ -1449,7 +1454,8 @@
       <c r="W20" t="inlineStr">
         <is>
           <t>Driver,
-Red Van</t>
+Red Van,
+Trainer</t>
         </is>
       </c>
       <c r="X20" t="inlineStr"/>
@@ -1467,7 +1473,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1483,15 +1489,10 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Driver,
-Red Van</t>
-        </is>
-      </c>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
@@ -1527,7 +1528,12 @@
           <t>Jerry D</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr"/>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
@@ -1543,7 +1549,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1559,10 +1565,14 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr"/>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>2nd week, work w/ Michael</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
@@ -1583,7 +1593,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Nataun</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -1614,7 +1624,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1658,10 +1668,14 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr"/>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>2nd week, work w/ Michael</t>
+        </is>
+      </c>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
@@ -1689,7 +1703,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1733,7 +1747,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
@@ -1768,12 +1782,13 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -1784,7 +1799,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1800,12 +1815,12 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>2nd week, work w/ Michael</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
@@ -1816,12 +1831,13 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -1851,31 +1867,31 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>11)</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>@ Store,
 Rx</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
@@ -1884,12 +1900,13 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
@@ -1900,13 +1917,12 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
@@ -1936,7 +1952,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1952,13 +1968,12 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L27" t="inlineStr"/>
@@ -1969,7 +1984,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -1985,7 +2000,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -2001,12 +2016,12 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>2nd week, work w/ Ian</t>
         </is>
       </c>
       <c r="X27" t="inlineStr"/>
@@ -2024,7 +2039,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2040,7 +2055,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2056,7 +2071,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2072,7 +2087,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2088,7 +2103,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -2104,21 +2119,9 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
@@ -2127,7 +2130,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2143,7 +2146,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2159,7 +2162,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2175,13 +2178,12 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X29" t="inlineStr"/>
@@ -2203,7 +2205,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2219,45 +2221,45 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
+          <t>Josh S</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>15)</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
           <t>Justin Lee</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="W30" t="inlineStr">
         <is>
           <t>@ Store,
 Rx</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>15)</t>
-        </is>
-      </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="W30" t="inlineStr">
-        <is>
-          <t>@ Store</t>
         </is>
       </c>
       <c r="X30" t="inlineStr"/>
@@ -2269,7 +2271,11 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4:30 AM GRAFTON AREA LEAVE TIME</t>
+        </is>
+      </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr">
@@ -2279,7 +2285,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2311,7 +2317,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2327,13 +2333,12 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X31" t="inlineStr"/>
@@ -2347,7 +2352,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4:30 AM GRAFTON AREA LEAVE TIME</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -2359,7 +2364,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2391,7 +2396,7 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
@@ -2407,12 +2412,13 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="X32" t="inlineStr"/>
@@ -2426,7 +2432,7 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -2438,12 +2444,13 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="L33" t="inlineStr"/>
@@ -2470,18 +2477,31 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
     </row>
@@ -2493,26 +2513,14 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1072 TWIN LAKES</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">19) </t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
@@ -2526,7 +2534,8 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="P34" t="inlineStr"/>
@@ -2537,12 +2546,13 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="T34" t="inlineStr"/>
@@ -2560,7 +2570,7 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1072 TWIN LAKES</t>
+          <t>700 NORTH LAKE AVENUE SUITE 101</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -2593,22 +2603,17 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>5:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
-        </is>
-      </c>
+      <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
@@ -2621,13 +2626,17 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>700 NORTH LAKE AVENUE SUITE 101</t>
+          <t>https://maps.app.goo.gl/EJCh7QYTfkz4egwc8</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>5:30 AM MEET BAYSHORE</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
@@ -2646,26 +2655,14 @@
         </is>
       </c>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>21)</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2678,17 +2675,13 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/EJCh7QYTfkz4egwc8</t>
-        </is>
-      </c>
+      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr">
         <is>
-          <t>5:30 AM MEET BAYSHORE</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K37" t="inlineStr"/>
@@ -2704,7 +2697,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2716,14 +2709,26 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K38" t="inlineStr"/>
@@ -2733,13 +2738,17 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>5:00 AM MEET WATERTOWN PLANK</t>
+        </is>
+      </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>ASCENSION COMMUNITY RX #1100-WISC, RACINE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2753,24 +2762,24 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FOX BROS PIGGLY WIGGLY #088, SAUKVILLE</t>
         </is>
       </c>
       <c r="K39" t="inlineStr"/>
@@ -2786,7 +2795,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>5:00 AM MEET WATERTOWN PLANK</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2794,7 +2803,7 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>1244 WISCONSIN AVE</t>
+          <t>ASCENSION COMMUNITY RX #1100-WISC, RACINE</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2806,26 +2815,14 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr">
         <is>
-          <t>FOX BROS PIGGLY WIGGLY #088, SAUKVILLE</t>
+          <t>810 E GREEN BAY AVE</t>
         </is>
       </c>
       <c r="K40" t="inlineStr"/>
@@ -2841,7 +2838,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2849,7 +2846,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/tu42wujVwN92</t>
+          <t>1244 WISCONSIN AVE</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2868,7 +2865,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr">
         <is>
-          <t>810 E GREEN BAY AVE</t>
+          <t>https://goo.gl/maps/eiMeyhHbpT82</t>
         </is>
       </c>
       <c r="K41" t="inlineStr"/>
@@ -2884,7 +2881,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>FOX BROS PIGGLY WIGGLY #082, MAYVILLE</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2892,7 +2889,7 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/tu42wujVwN92</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2905,13 +2902,17 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/eiMeyhHbpT82</t>
+          <t xml:space="preserve">STORE RESET-REMAPPED </t>
         </is>
       </c>
       <c r="K42" t="inlineStr"/>
@@ -2927,7 +2928,7 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>FOX BROS PIGGLY WIGGLY #082, MAYVILLE</t>
+          <t>1440 HORICON ST</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2935,7 +2936,7 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2950,17 +2951,13 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">STORE RESET-REMAPPED </t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
@@ -2974,7 +2971,7 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>1440 HORICON ST</t>
+          <t>https://maps.app.goo.gl/wZQq41kNMJ6VcqDe7</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2982,7 +2979,7 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>ASCENSION COMMUNITY RX #1101-SPRING ST, RACINE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2997,14 +2994,27 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>ASCENSION ST JOSEPH RX - CHAMBERS #1103, MILW</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Driver,
+Altima, Equip</t>
+        </is>
+      </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
@@ -3015,17 +3025,13 @@
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/wZQq41kNMJ6VcqDe7</t>
-        </is>
-      </c>
+      <c r="R44" t="inlineStr"/>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>3807 SPRING ST</t>
+          <t>ASCENSION COMMUNITY RX #1101-SPRING ST, RACINE</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -3040,25 +3046,24 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>ASCENSION ST JOSEPH RX - CHAMBERS #1103, MILW</t>
+          <t>5000 W CHAMBERS  ROOM 1801</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Driver,
-Altima, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
@@ -3066,14 +3071,26 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/345cLtjsHsD2</t>
+          <t>3807 SPRING ST</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -3088,26 +3105,22 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>5000 W CHAMBERS  ROOM 1801</t>
+          <t>ENTER THROUGH MATERNITY(3RD LEVEL) VISITOR ENTRY. RX IS IN THE LOBBY.</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Curt</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
@@ -3127,22 +3140,26 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/345cLtjsHsD2</t>
+        </is>
+      </c>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
@@ -3155,19 +3172,19 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>ENTER THROUGH MATERNITY(3RD LEVEL) VISITOR ENTRY. RX IS IN THE LOBBY.</t>
+          <t>https://goo.gl/maps/gRgCFNfwBUy</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Curt</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -3191,35 +3208,19 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
     </row>
@@ -3231,19 +3232,19 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/gRgCFNfwBUy</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -3254,30 +3255,34 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe</t>
+        </is>
+      </c>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>Driver,
-White Camry</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="X48" t="inlineStr"/>
@@ -3291,22 +3296,27 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Greg</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr"/>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe</t>
+        </is>
+      </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr"/>
@@ -3314,32 +3324,32 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe</t>
-        </is>
-      </c>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr"/>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Driver,
+White Camry</t>
+        </is>
+      </c>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
     </row>
@@ -3351,27 +3361,22 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>ASCENSION ST FRANCIS RX #1107, MILWAUKEE</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe</t>
-        </is>
-      </c>
+          <t>Leyna</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
@@ -3383,18 +3388,30 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr"/>
+          <t>Aivy</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
@@ -3407,19 +3424,19 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>ASCENSION ST FRANCIS RX #1107, MILWAUKEE</t>
+          <t>3237 S 16TH ST    ROOM 121</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="K51" t="inlineStr"/>
@@ -3434,12 +3451,12 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Annette</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3462,19 +3479,19 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>3237 S 16TH ST    ROOM 121</t>
+          <t>https://goo.gl/maps/ckXW882eGXp</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="K52" t="inlineStr"/>
@@ -3489,12 +3506,12 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Annette</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -3517,21 +3534,13 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/ckXW882eGXp</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
@@ -3544,12 +3553,12 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -3572,7 +3581,7 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -3587,12 +3596,12 @@
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Nagui</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
@@ -3615,13 +3624,17 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>ASCENSION RX #1105, FRANKLIN-27TH ST</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
@@ -3638,12 +3651,12 @@
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Nagui</t>
+          <t>Serena</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
@@ -3666,7 +3679,7 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>ASCENSION RX #1105, FRANKLIN-27TH ST</t>
+          <t>10101 S 27TH ST    ROOM 1005</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -3674,7 +3687,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>COCA-COLA, MILWAUKEE</t>
         </is>
       </c>
       <c r="K56" t="inlineStr"/>
@@ -3693,12 +3706,12 @@
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Serena</t>
+          <t>Taya</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -3721,7 +3734,7 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>10101 S 27TH ST    ROOM 1005</t>
+          <t>https://goo.gl/maps/fQ4V9q61NUS2</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -3729,7 +3742,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr">
         <is>
-          <t>COCA-COLA, MILWAUKEE</t>
+          <t>11800 W BROWN DEER RD</t>
         </is>
       </c>
       <c r="K57" t="inlineStr"/>
@@ -3738,21 +3751,9 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>Taya</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
@@ -3766,17 +3767,13 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/fQ4V9q61NUS2</t>
-        </is>
-      </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr">
         <is>
-          <t>11800 W BROWN DEER RD</t>
+          <t>https://maps.app.goo.gl/8SSv4XLobUiTUcft6</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3800,16 +3797,24 @@
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/8SSv4XLobUiTUcft6</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
@@ -3821,7 +3826,11 @@
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
@@ -3837,22 +3846,26 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr">
+        <is>
           <t>1)</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
@@ -3866,7 +3879,7 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -3884,24 +3897,24 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3913,7 +3926,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1262, MILWAUKEE</t>
         </is>
       </c>
       <c r="S61" t="inlineStr"/>
@@ -3931,26 +3944,22 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
@@ -3960,7 +3969,7 @@
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1262, MILWAUKEE</t>
+          <t>3003 W GOOD HOPE RD, SUITE 1129</t>
         </is>
       </c>
       <c r="S62" t="inlineStr"/>
@@ -3976,21 +3985,9 @@
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -4003,7 +4000,7 @@
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr">
         <is>
-          <t>3003 W GOOD HOPE RD, SUITE 1129</t>
+          <t xml:space="preserve">https://goo.gl/maps/55ZX8sbcB762 </t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -4032,11 +4029,7 @@
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">https://goo.gl/maps/55ZX8sbcB762 </t>
-        </is>
-      </c>
+      <c r="R64" t="inlineStr"/>
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
@@ -4051,7 +4044,11 @@
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5:45 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
@@ -4062,9 +4059,21 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
@@ -4080,7 +4089,7 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>5:45 AM OFFICE LEAVE TIME</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -4095,19 +4104,15 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
@@ -4123,7 +4128,7 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -4136,16 +4141,8 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>Monica</t>
-        </is>
-      </c>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
@@ -4162,7 +4159,7 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+          <t>AURORA OUTPATIENT RX #1230, HOWARDS GROVE</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -4193,7 +4190,7 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1230, HOWARDS GROVE</t>
+          <t>620 S WISCONSIN DR</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
@@ -4207,7 +4204,11 @@
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>8:00 AM START</t>
+        </is>
+      </c>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr"/>
@@ -4224,7 +4225,7 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>620 S WISCONSIN DR</t>
+          <t>https://maps.app.goo.gl/m32L8HYJsFkLkhxb9</t>
         </is>
       </c>
       <c r="G70" t="inlineStr"/>
@@ -4240,7 +4241,7 @@
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr">
         <is>
-          <t>8:00 AM START</t>
+          <t xml:space="preserve">DC5-ITEM LEVEL </t>
         </is>
       </c>
       <c r="S70" t="inlineStr"/>
@@ -4257,11 +4258,7 @@
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/m32L8HYJsFkLkhxb9</t>
-        </is>
-      </c>
+      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
@@ -4275,7 +4272,7 @@
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-ITEM LEVEL </t>
+          <t>AURORA VISION #1166, MILWAUKEE</t>
         </is>
       </c>
       <c r="S71" t="inlineStr"/>
@@ -4291,9 +4288,21 @@
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -4306,7 +4315,7 @@
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr">
         <is>
-          <t>AURORA VISION #1166, MILWAUKEE</t>
+          <t>3003 W GOOD HOPE</t>
         </is>
       </c>
       <c r="S72" t="inlineStr"/>
@@ -4322,21 +4331,9 @@
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -4349,7 +4346,7 @@
       <c r="Q73" t="inlineStr"/>
       <c r="R73" t="inlineStr">
         <is>
-          <t>3003 W GOOD HOPE</t>
+          <t>https://goo.gl/maps/55ZX8sbcB762</t>
         </is>
       </c>
       <c r="S73" t="inlineStr"/>
@@ -4378,11 +4375,7 @@
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
       <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/55ZX8sbcB762</t>
-        </is>
-      </c>
+      <c r="R74" t="inlineStr"/>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr"/>
@@ -4397,7 +4390,11 @@
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Online vendor certifications should be done by Tues, 11/5</t>
+        </is>
+      </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
@@ -4408,9 +4405,21 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>Optima available, Equip</t>
+        </is>
+      </c>
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>
@@ -4426,7 +4435,7 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Online vendor certifications should be done by Tues, 11/5</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="G76" t="inlineStr"/>
@@ -4441,19 +4450,15 @@
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>Optima available, Equip</t>
-        </is>
-      </c>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr"/>
@@ -4469,7 +4474,7 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>COCA-COLA, MILWAUKEE</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -4482,16 +4487,8 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
       <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
@@ -4508,7 +4505,7 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>COCA-COLA, MILWAUKEE</t>
+          <t>11800 W BROWN DEER RD</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -4539,7 +4536,7 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>11800 W BROWN DEER RD</t>
+          <t>https://maps.app.goo.gl/8SSv4XLobUiTUcft6</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -4568,11 +4565,7 @@
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/8SSv4XLobUiTUcft6</t>
-        </is>
-      </c>
+      <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
@@ -4598,8 +4591,16 @@
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
@@ -4627,12 +4628,12 @@
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
@@ -4655,41 +4656,6 @@
       <c r="X82" t="inlineStr"/>
       <c r="Y82" t="inlineStr"/>
     </row>
-    <row r="83">
-      <c r="A83" t="inlineStr"/>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/11-10-24 to 11-16-24 Milwaukee Schedule.xlsx
+++ b/11-10-24 to 11-16-24 Milwaukee Schedule.xlsx
@@ -545,7 +545,11 @@
           <t xml:space="preserve">Katherine </t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bags 3,4</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr">
@@ -553,7 +557,11 @@
           <t xml:space="preserve">DJ </t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bags 1,2 </t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
@@ -561,7 +569,11 @@
           <t xml:space="preserve">Katherine </t>
         </is>
       </c>
-      <c r="O4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bag 4, SB 10</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -569,7 +581,11 @@
           <t xml:space="preserve">DJ </t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bag 1, SB 11</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr">
@@ -577,7 +593,11 @@
           <t xml:space="preserve">Kim </t>
         </is>
       </c>
-      <c r="W4" t="inlineStr"/>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bags 5-8</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -596,7 +616,11 @@
           <t xml:space="preserve">DJ </t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bag 1, SB 11</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -612,7 +636,11 @@
           <t xml:space="preserve">Katherine </t>
         </is>
       </c>
-      <c r="S5" t="inlineStr"/>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Bag 4, SB 10</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr">
@@ -620,7 +648,11 @@
           <t xml:space="preserve">Katherine </t>
         </is>
       </c>
-      <c r="W5" t="inlineStr"/>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Bag 4, SB 10</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
     </row>

--- a/11-10-24 to 11-16-24 Milwaukee Schedule.xlsx
+++ b/11-10-24 to 11-16-24 Milwaukee Schedule.xlsx
@@ -2671,21 +2671,9 @@
       </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>21)</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr"/>
@@ -2766,7 +2754,11 @@
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>6:15 AM MEET AT THE OFFICE</t>
+        </is>
+      </c>
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
@@ -2819,7 +2811,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>6:15 AM MEET AT THE OFFICE</t>
+          <t>8:00 AM START</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2862,7 +2854,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>8:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2905,7 +2897,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1511, DOWNERS GROVE</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2952,7 +2944,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1511, DOWNERS GROVE</t>
+          <t>3825 HIGHLAND AVE</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2995,7 +2987,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>3825 HIGHLAND AVE</t>
+          <t>https://maps.app.goo.gl/GZ9Dc5auLrny8Qvo7</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -3049,11 +3041,7 @@
       </c>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/GZ9Dc5auLrny8Qvo7</t>
-        </is>
-      </c>
+      <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
@@ -3099,9 +3087,21 @@
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3156,17 +3156,18 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
@@ -3221,22 +3222,9 @@
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
@@ -3351,7 +3339,11 @@
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
@@ -3413,7 +3405,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>COCA-COLA, MILWAUKEE</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3476,7 +3468,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>COCA-COLA, MILWAUKEE</t>
+          <t>11800 W BROWN DEER RD</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3531,7 +3523,7 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>11800 W BROWN DEER RD</t>
+          <t>https://maps.app.goo.gl/8SSv4XLobUiTUcft6</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3576,11 +3568,7 @@
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/8SSv4XLobUiTUcft6</t>
-        </is>
-      </c>
+      <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
@@ -3622,8 +3610,16 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr">
@@ -3671,12 +3667,12 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3724,16 +3720,8 @@
       </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
@@ -3811,7 +3799,11 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
@@ -3852,7 +3844,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3901,11 +3893,7 @@
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>

--- a/11-10-24 to 11-16-24 Milwaukee Schedule.xlsx
+++ b/11-10-24 to 11-16-24 Milwaukee Schedule.xlsx
@@ -1304,7 +1304,7 @@
       <c r="O18" t="inlineStr">
         <is>
           <t>Driver,
-Red Van</t>
+Altima</t>
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
@@ -1456,7 +1456,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Justin Learned</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -1613,7 +1613,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="O23" t="inlineStr"/>
@@ -1767,10 +1767,14 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr"/>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>2nd week, work w/ Michael</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
@@ -1847,12 +1851,13 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2nd week, work w/ Michael</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
@@ -1932,13 +1937,12 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P26" t="inlineStr"/>
@@ -2016,7 +2020,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2103,7 +2107,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2178,7 +2182,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2253,7 +2257,7 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -2333,7 +2337,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2412,7 +2416,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2493,12 +2497,13 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Trainer</t>
         </is>
       </c>
       <c r="P33" t="inlineStr"/>
@@ -2561,13 +2566,13 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
           <t>@ Store,
-Trainer</t>
+Supv Rx</t>
         </is>
       </c>
       <c r="P34" t="inlineStr"/>
@@ -2611,22 +2616,9 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">20) </t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Rx</t>
-        </is>
-      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
@@ -2707,7 +2699,11 @@
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>6:15 AM MEET AT THE OFFICE</t>
+        </is>
+      </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
@@ -2756,7 +2752,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>6:15 AM MEET AT THE OFFICE</t>
+          <t>8:00 AM START</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2811,7 +2807,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>8:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2854,7 +2850,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1511, DOWNERS GROVE</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2897,7 +2893,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1511, DOWNERS GROVE</t>
+          <t>3825 HIGHLAND AVE</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2944,7 +2940,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>3825 HIGHLAND AVE</t>
+          <t>https://maps.app.goo.gl/GZ9Dc5auLrny8Qvo7</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2985,11 +2981,7 @@
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/GZ9Dc5auLrny8Qvo7</t>
-        </is>
-      </c>
+      <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
@@ -3040,9 +3032,21 @@
         </is>
       </c>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
@@ -3089,17 +3093,18 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="P45" t="inlineStr"/>
@@ -3154,22 +3159,9 @@
       </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
@@ -3270,7 +3262,11 @@
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
@@ -3341,7 +3337,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>COCA-COLA, MILWAUKEE</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3405,7 +3401,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>COCA-COLA, MILWAUKEE</t>
+          <t>11800 W BROWN DEER RD</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3468,7 +3464,7 @@
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
         <is>
-          <t>11800 W BROWN DEER RD</t>
+          <t>https://maps.app.goo.gl/8SSv4XLobUiTUcft6</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3521,11 +3517,7 @@
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>https://maps.app.goo.gl/8SSv4XLobUiTUcft6</t>
-        </is>
-      </c>
+      <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
@@ -3567,8 +3559,16 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
@@ -3612,12 +3612,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O54" t="inlineStr"/>
@@ -3665,16 +3665,8 @@
       </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr">
@@ -3768,7 +3760,11 @@
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
@@ -3801,7 +3797,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3842,11 +3838,7 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>

--- a/11-10-24 to 11-16-24 Milwaukee Schedule.xlsx
+++ b/11-10-24 to 11-16-24 Milwaukee Schedule.xlsx
@@ -1560,12 +1560,7 @@
           <t>Jerry D</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
@@ -2052,12 +2047,12 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Victor</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>2nd week, work w/ Ian</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X27" t="inlineStr"/>
@@ -2139,7 +2134,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
@@ -2214,12 +2209,13 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="X29" t="inlineStr"/>
@@ -2289,13 +2285,12 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X30" t="inlineStr"/>
@@ -2369,12 +2364,13 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="X31" t="inlineStr"/>
@@ -2448,13 +2444,12 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X32" t="inlineStr"/>
@@ -2524,21 +2519,9 @@
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="W33" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
     </row>
@@ -2637,7 +2620,11 @@
       </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>5:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
+        </is>
+      </c>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
@@ -2674,7 +2661,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>5:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2713,7 +2700,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2768,7 +2755,7 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>ASCENSION COMMUNITY RX #1100-WISC, RACINE</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2823,7 +2810,7 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>ASCENSION COMMUNITY RX #1100-WISC, RACINE</t>
+          <t>1244 WISCONSIN AVE</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2866,7 +2853,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>1244 WISCONSIN AVE</t>
+          <t>https://goo.gl/maps/tu42wujVwN92</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2909,7 +2896,7 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/tu42wujVwN92</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2956,7 +2943,7 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2995,7 +2982,7 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>ASCENSION COMMUNITY RX #1101-SPRING ST, RACINE</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -3055,7 +3042,7 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>ASCENSION COMMUNITY RX #1101-SPRING ST, RACINE</t>
+          <t>3807 SPRING ST</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -3127,7 +3114,7 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>3807 SPRING ST</t>
+          <t>https://goo.gl/maps/345cLtjsHsD2</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -3180,11 +3167,7 @@
       </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/345cLtjsHsD2</t>
-        </is>
-      </c>
+      <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
@@ -3230,9 +3213,21 @@
       </c>
       <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
     </row>
@@ -3288,17 +3283,18 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W48" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>Driver,
+White Camry</t>
         </is>
       </c>
       <c r="X48" t="inlineStr"/>
@@ -3356,20 +3352,15 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>Driver,
-White Camry</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
     </row>
@@ -3422,16 +3413,8 @@
         </is>
       </c>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>

--- a/11-10-24 to 11-16-24 Milwaukee Schedule.xlsx
+++ b/11-10-24 to 11-16-24 Milwaukee Schedule.xlsx
@@ -1794,7 +1794,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W24" t="inlineStr"/>
@@ -1880,7 +1880,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1964,10 +1964,14 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr"/>
+          <t>Elijah</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
     </row>
@@ -2047,7 +2051,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
@@ -2134,12 +2138,13 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="X28" t="inlineStr"/>
@@ -2209,13 +2214,12 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X29" t="inlineStr"/>
@@ -2285,12 +2289,13 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="X30" t="inlineStr"/>
@@ -2364,13 +2369,12 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X31" t="inlineStr"/>
@@ -2437,21 +2441,9 @@
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="V32" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="W32" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
     </row>
@@ -2577,7 +2569,11 @@
       </c>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>5:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
+        </is>
+      </c>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
@@ -2622,7 +2618,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>5:30 AM MEET RYAN RD PNR (HWY 100 &amp; 94)</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2661,7 +2657,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2700,7 +2696,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>ASCENSION COMMUNITY RX #1100-WISC, RACINE</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2755,7 +2751,7 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>ASCENSION COMMUNITY RX #1100-WISC, RACINE</t>
+          <t>1244 WISCONSIN AVE</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2810,7 +2806,7 @@
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t>1244 WISCONSIN AVE</t>
+          <t>https://goo.gl/maps/tu42wujVwN92</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2853,7 +2849,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/tu42wujVwN92</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2896,7 +2892,7 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2943,7 +2939,7 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>ASCENSION COMMUNITY RX #1101-SPRING ST, RACINE</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2982,7 +2978,7 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>ASCENSION COMMUNITY RX #1101-SPRING ST, RACINE</t>
+          <t>3807 SPRING ST</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -3042,7 +3038,7 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>3807 SPRING ST</t>
+          <t>https://goo.gl/maps/345cLtjsHsD2</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -3112,11 +3108,7 @@
       </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/345cLtjsHsD2</t>
-        </is>
-      </c>
+      <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
@@ -3166,9 +3158,21 @@
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
     </row>
@@ -3215,17 +3219,18 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>Driver,
+White Camry</t>
         </is>
       </c>
       <c r="X47" t="inlineStr"/>
@@ -3283,20 +3288,15 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>Driver,
-White Camry</t>
-        </is>
-      </c>
+          <t>Cynthia</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
     </row>
@@ -3350,16 +3350,8 @@
       </c>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>Cynthia</t>
-        </is>
-      </c>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
